--- a/Reference/TubeCount.xlsx
+++ b/Reference/TubeCount.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24701"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25225"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Nakaz\Desktop\Electronics Projects\Vacuum Tube Stuff\0. UE14500\Reference\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Nakaz\Desktop\Electronics Projects\UEVTC Github\Reference\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7610DF0F-70C2-4394-927F-14318B4AB0F3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{05E64ACF-74C8-43C1-AB1B-DA25A598917E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{E367B5C6-BA99-4720-994B-4129F6482CC4}"/>
   </bookViews>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="57" uniqueCount="26">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="58" uniqueCount="28">
   <si>
     <t>Soft Start</t>
     <phoneticPr fontId="1"/>
@@ -137,6 +137,14 @@
   </si>
   <si>
     <t>Total Power 6977 (W)</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>6AU6/6977 Alternate</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>Memory (Pure 6AU6)</t>
     <phoneticPr fontId="1"/>
   </si>
 </sst>
@@ -534,8 +542,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D1BEA3E1-084F-44B6-9853-BFC0F741EA8A}">
   <dimension ref="B4:R32"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="E1" zoomScale="145" zoomScaleNormal="145" workbookViewId="0">
-      <selection activeCell="S11" sqref="S11"/>
+    <sheetView tabSelected="1" zoomScale="145" zoomScaleNormal="145" workbookViewId="0">
+      <selection activeCell="D18" sqref="D18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18.75"/>
@@ -561,16 +569,23 @@
       <c r="C4" s="9"/>
       <c r="D4" s="9"/>
       <c r="F4" s="9" t="s">
-        <v>14</v>
+        <v>23</v>
       </c>
       <c r="G4" s="9"/>
       <c r="H4" s="9"/>
       <c r="J4" s="9" t="s">
-        <v>23</v>
+        <v>27</v>
       </c>
       <c r="K4" s="9"/>
       <c r="L4" s="9"/>
       <c r="M4" s="8"/>
+      <c r="N4" s="9" t="s">
+        <v>26</v>
+      </c>
+      <c r="O4" s="9"/>
+      <c r="P4" s="9"/>
+      <c r="Q4" s="9"/>
+      <c r="R4" s="9"/>
     </row>
     <row r="5" spans="2:18">
       <c r="C5" s="1" t="s">
@@ -616,15 +631,15 @@
       <c r="F6" t="s">
         <v>0</v>
       </c>
-      <c r="G6" s="2"/>
-      <c r="H6" s="4">
+      <c r="G6" s="6"/>
+      <c r="H6" s="6">
         <v>2</v>
       </c>
       <c r="J6" t="s">
         <v>0</v>
       </c>
-      <c r="K6" s="6"/>
-      <c r="L6" s="6">
+      <c r="K6" s="2"/>
+      <c r="L6" s="4">
         <v>2</v>
       </c>
       <c r="M6" s="8"/>
@@ -648,19 +663,19 @@
       <c r="F7" t="s">
         <v>15</v>
       </c>
-      <c r="G7" s="5">
+      <c r="G7" s="6">
         <v>4</v>
       </c>
-      <c r="H7" s="5">
+      <c r="H7" s="6">
         <v>2</v>
       </c>
       <c r="J7" t="s">
         <v>15</v>
       </c>
-      <c r="K7" s="6">
+      <c r="K7" s="5">
         <v>4</v>
       </c>
-      <c r="L7" s="6">
+      <c r="L7" s="5">
         <v>2</v>
       </c>
       <c r="M7" s="8"/>
@@ -688,19 +703,19 @@
         <v>4</v>
       </c>
       <c r="F8" t="s">
+        <v>19</v>
+      </c>
+      <c r="G8" s="6">
+        <v>12</v>
+      </c>
+      <c r="H8" s="6"/>
+      <c r="J8" t="s">
         <v>22</v>
       </c>
-      <c r="G8" s="5">
+      <c r="K8" s="5">
         <v>12</v>
       </c>
-      <c r="H8" s="5"/>
-      <c r="J8" t="s">
-        <v>19</v>
-      </c>
-      <c r="K8" s="6">
-        <v>12</v>
-      </c>
-      <c r="L8" s="6"/>
+      <c r="L8" s="5"/>
       <c r="M8" s="8"/>
       <c r="N8" s="8">
         <v>12</v>
@@ -720,21 +735,21 @@
         <v>10</v>
       </c>
       <c r="F9" t="s">
+        <v>14</v>
+      </c>
+      <c r="G9" s="6">
+        <v>192</v>
+      </c>
+      <c r="H9" s="6"/>
+      <c r="J9" t="s">
         <v>11</v>
       </c>
-      <c r="G9" s="2">
+      <c r="K9" s="2">
         <v>192</v>
       </c>
-      <c r="H9" s="4">
+      <c r="L9" s="4">
         <v>48</v>
       </c>
-      <c r="J9" t="s">
-        <v>14</v>
-      </c>
-      <c r="K9" s="6">
-        <v>192</v>
-      </c>
-      <c r="L9" s="6"/>
       <c r="M9" s="8"/>
       <c r="N9" s="8">
         <v>144</v>
@@ -760,19 +775,20 @@
         <v>10</v>
       </c>
       <c r="F10" t="s">
+        <v>24</v>
+      </c>
+      <c r="G10" s="6">
+        <v>48</v>
+      </c>
+      <c r="H10"/>
+      <c r="J10" t="s">
         <v>12</v>
       </c>
-      <c r="G10" s="2">
-        <v>8</v>
-      </c>
-      <c r="H10" s="4">
-        <v>8</v>
-      </c>
-      <c r="J10" t="s">
-        <v>24</v>
-      </c>
-      <c r="K10" s="6">
-        <v>48</v>
+      <c r="K10" s="2">
+        <v>8</v>
+      </c>
+      <c r="L10" s="4">
+        <v>8</v>
       </c>
       <c r="N10" s="8">
         <v>48</v>
@@ -782,15 +798,16 @@
       </c>
     </row>
     <row r="11" spans="2:18">
-      <c r="J11" t="s">
+      <c r="F11" t="s">
         <v>20</v>
       </c>
-      <c r="K11" s="6">
-        <v>8</v>
-      </c>
-      <c r="L11" s="6">
-        <v>8</v>
-      </c>
+      <c r="G11" s="6">
+        <v>8</v>
+      </c>
+      <c r="H11" s="6">
+        <v>8</v>
+      </c>
+      <c r="L11" s="4"/>
       <c r="M11" s="8"/>
       <c r="N11" s="8">
         <v>8</v>
@@ -815,16 +832,16 @@
       <c r="D12" s="2">
         <v>34</v>
       </c>
-      <c r="F12" t="s">
+      <c r="H12" s="6"/>
+      <c r="J12" t="s">
         <v>7</v>
       </c>
-      <c r="G12" s="2">
+      <c r="K12" s="2">
         <v>216</v>
       </c>
-      <c r="H12" s="4">
+      <c r="L12" s="4">
         <v>60</v>
       </c>
-      <c r="L12" s="6"/>
       <c r="M12" s="8"/>
     </row>
     <row r="13" spans="2:18">
@@ -840,19 +857,19 @@
         <v>61.2</v>
       </c>
       <c r="F13" t="s">
+        <v>7</v>
+      </c>
+      <c r="G13" s="6">
+        <v>264</v>
+      </c>
+      <c r="H13" s="6">
+        <v>12</v>
+      </c>
+      <c r="J13" t="s">
         <v>21</v>
       </c>
-      <c r="H13" s="5">
-        <v>8</v>
-      </c>
-      <c r="J13" t="s">
-        <v>7</v>
-      </c>
-      <c r="K13" s="6">
-        <v>264</v>
-      </c>
-      <c r="L13" s="6">
-        <v>12</v>
+      <c r="L13" s="5">
+        <v>8</v>
       </c>
       <c r="M13" s="8"/>
       <c r="N13" s="8">
@@ -880,29 +897,31 @@
         <f>D13/12</f>
         <v>5.1000000000000005</v>
       </c>
-      <c r="F14" t="s">
+      <c r="H14"/>
+      <c r="J14" t="s">
         <v>16</v>
       </c>
-      <c r="G14" s="5">
+      <c r="K14" s="5">
         <v>386</v>
       </c>
-      <c r="H14" s="4">
+      <c r="L14" s="4">
         <v>110</v>
       </c>
     </row>
     <row r="15" spans="2:18">
       <c r="F15" t="s">
+        <v>21</v>
+      </c>
+      <c r="H15" s="6">
+        <v>8</v>
+      </c>
+      <c r="J15" t="s">
         <v>18</v>
       </c>
-      <c r="G15" s="2">
+      <c r="K15" s="2">
         <v>44</v>
       </c>
-      <c r="J15" t="s">
-        <v>21</v>
-      </c>
-      <c r="L15" s="6">
-        <v>8</v>
-      </c>
+      <c r="L15" s="4"/>
       <c r="M15" s="8"/>
       <c r="O15" s="8">
         <v>8</v>
@@ -913,24 +932,24 @@
     </row>
     <row r="16" spans="2:18">
       <c r="F16" t="s">
+        <v>16</v>
+      </c>
+      <c r="G16" s="6">
+        <v>385</v>
+      </c>
+      <c r="H16" s="6">
+        <v>19</v>
+      </c>
+      <c r="J16" t="s">
         <v>9</v>
       </c>
-      <c r="G16" s="3">
-        <f>(G15+G14)/24</f>
+      <c r="K16" s="3">
+        <f>(K15+K14)/24</f>
         <v>17.916666666666668</v>
       </c>
-      <c r="H16" s="3">
-        <f>(H13+H14)/12</f>
+      <c r="L16" s="3">
+        <f>(L13+L14)/12</f>
         <v>9.8333333333333339</v>
-      </c>
-      <c r="J16" t="s">
-        <v>16</v>
-      </c>
-      <c r="K16" s="6">
-        <v>385</v>
-      </c>
-      <c r="L16" s="6">
-        <v>19</v>
       </c>
       <c r="M16" s="8"/>
       <c r="N16" s="8">
@@ -947,12 +966,14 @@
       </c>
     </row>
     <row r="17" spans="6:18">
-      <c r="J17" t="s">
+      <c r="F17" t="s">
         <v>25</v>
       </c>
-      <c r="K17" s="6">
+      <c r="G17" s="6">
         <v>32</v>
       </c>
+      <c r="H17"/>
+      <c r="L17" s="4"/>
       <c r="N17" s="8">
         <v>32</v>
       </c>
@@ -961,18 +982,18 @@
       </c>
     </row>
     <row r="18" spans="6:18">
-      <c r="F18" s="9" t="s">
+      <c r="F18" t="s">
+        <v>18</v>
+      </c>
+      <c r="G18" s="6">
+        <v>44</v>
+      </c>
+      <c r="H18" s="6"/>
+      <c r="J18" s="9" t="s">
         <v>13</v>
       </c>
-      <c r="G18" s="9"/>
-      <c r="H18" s="9"/>
-      <c r="J18" t="s">
-        <v>18</v>
-      </c>
-      <c r="K18" s="6">
-        <v>44</v>
-      </c>
-      <c r="L18" s="6"/>
+      <c r="K18" s="9"/>
+      <c r="L18" s="9"/>
       <c r="M18" s="8"/>
       <c r="N18" s="8">
         <v>44</v>
@@ -982,22 +1003,22 @@
       </c>
     </row>
     <row r="19" spans="6:18">
-      <c r="G19" s="1" t="s">
+      <c r="F19" t="s">
+        <v>9</v>
+      </c>
+      <c r="G19" s="3">
+        <f>(SUM(G15:G18))/24</f>
+        <v>19.208333333333332</v>
+      </c>
+      <c r="H19" s="3">
+        <f>(SUM(H15:H18))/12</f>
+        <v>2.25</v>
+      </c>
+      <c r="K19" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="H19" s="1" t="s">
+      <c r="L19" s="1" t="s">
         <v>6</v>
-      </c>
-      <c r="J19" t="s">
-        <v>9</v>
-      </c>
-      <c r="K19" s="3">
-        <f>(SUM(K15:K18))/24</f>
-        <v>19.208333333333332</v>
-      </c>
-      <c r="L19" s="3">
-        <f>(SUM(L15:L18))/12</f>
-        <v>2.25</v>
       </c>
       <c r="M19" s="3"/>
       <c r="N19" s="3">
@@ -1018,120 +1039,127 @@
       </c>
     </row>
     <row r="20" spans="6:18">
-      <c r="F20" t="s">
+      <c r="J20" t="s">
         <v>0</v>
       </c>
-      <c r="G20" s="4"/>
-      <c r="H20" s="4">
+      <c r="K20" s="4"/>
+      <c r="L20" s="4">
         <v>2</v>
       </c>
     </row>
     <row r="21" spans="6:18">
-      <c r="F21" t="s">
+      <c r="J21" t="s">
         <v>15</v>
       </c>
-      <c r="G21" s="4">
+      <c r="K21" s="4">
         <v>4</v>
       </c>
-      <c r="H21" s="4">
+      <c r="L21" s="4">
         <v>2</v>
       </c>
     </row>
     <row r="22" spans="6:18">
-      <c r="F22" t="s">
+      <c r="J22" t="s">
         <v>19</v>
       </c>
-      <c r="G22" s="4">
+      <c r="K22" s="4">
         <v>12</v>
       </c>
+      <c r="L22" s="4"/>
     </row>
     <row r="23" spans="6:18">
-      <c r="F23" t="s">
+      <c r="J23" t="s">
         <v>13</v>
       </c>
-      <c r="G23" s="4">
+      <c r="K23" s="4">
         <v>144</v>
       </c>
+      <c r="L23" s="4"/>
     </row>
     <row r="24" spans="6:18">
-      <c r="F24" t="s">
+      <c r="J24" t="s">
         <v>20</v>
       </c>
-      <c r="G24" s="4">
-        <v>8</v>
-      </c>
-      <c r="H24" s="4">
+      <c r="K24" s="4">
+        <v>8</v>
+      </c>
+      <c r="L24" s="4">
         <v>8</v>
       </c>
     </row>
     <row r="25" spans="6:18">
-      <c r="G25" s="4"/>
+      <c r="K25" s="4"/>
+      <c r="L25" s="4"/>
     </row>
     <row r="26" spans="6:18">
-      <c r="G26" s="4"/>
+      <c r="K26" s="4"/>
+      <c r="L26" s="4"/>
     </row>
     <row r="27" spans="6:18">
-      <c r="F27" t="s">
+      <c r="J27" t="s">
         <v>7</v>
       </c>
-      <c r="G27" s="4">
+      <c r="K27" s="4">
         <v>168</v>
       </c>
-      <c r="H27" s="4">
+      <c r="L27" s="4">
         <v>12</v>
       </c>
     </row>
     <row r="28" spans="6:18">
-      <c r="F28" t="s">
+      <c r="J28" t="s">
         <v>21</v>
       </c>
-      <c r="H28" s="4">
+      <c r="L28" s="4">
         <v>8</v>
       </c>
     </row>
     <row r="29" spans="6:18">
-      <c r="F29" t="s">
+      <c r="J29" t="s">
         <v>16</v>
       </c>
-      <c r="G29" s="4">
+      <c r="K29" s="4">
         <v>23</v>
       </c>
-      <c r="H29" s="3">
+      <c r="L29" s="3">
         <v>19</v>
       </c>
     </row>
     <row r="30" spans="6:18">
-      <c r="F30" t="s">
+      <c r="J30" t="s">
         <v>17</v>
       </c>
-      <c r="G30" s="7">
+      <c r="K30" s="7">
         <v>408</v>
       </c>
+      <c r="L30" s="4"/>
     </row>
     <row r="31" spans="6:18">
-      <c r="F31" t="s">
+      <c r="J31" t="s">
         <v>18</v>
       </c>
-      <c r="G31" s="4">
+      <c r="K31" s="4">
         <v>44</v>
       </c>
+      <c r="L31" s="4"/>
     </row>
     <row r="32" spans="6:18">
-      <c r="F32" t="s">
+      <c r="J32" t="s">
         <v>9</v>
       </c>
-      <c r="G32" s="4">
+      <c r="K32" s="4">
         <v>19</v>
       </c>
-      <c r="H32" s="4">
+      <c r="L32" s="4">
         <v>2.2000000000000002</v>
       </c>
     </row>
   </sheetData>
-  <mergeCells count="4">
+  <mergeCells count="5">
     <mergeCell ref="B4:D4"/>
+    <mergeCell ref="J18:L18"/>
     <mergeCell ref="F4:H4"/>
-    <mergeCell ref="F18:H18"/>
+    <mergeCell ref="N4:R4"/>
     <mergeCell ref="J4:L4"/>
   </mergeCells>
   <phoneticPr fontId="1"/>
